--- a/FinalProject/src/util/EspectaculoRespuestasDataset.xlsx
+++ b/FinalProject/src/util/EspectaculoRespuestasDataset.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crisi\Desktop\Proyectos_Java\Proyectos_Analisis\FinalWork\FinalProjectFree\FinalProject\src\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4C345E-60AC-4D09-BD83-F07C5FC58708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F197D-9FD3-469C-A690-1361BA4E5603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2160" windowWidth="10110" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="19">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -49,9 +52,6 @@
     <t>¿Que le pareció la atención brindada por el personal durante el espectáculo?</t>
   </si>
   <si>
-    <t>¿Que tan buena fue la calidad y el precio del espectáculo?</t>
-  </si>
-  <si>
     <t>Cristian</t>
   </si>
   <si>
@@ -61,9 +61,6 @@
     <t>Muy bueno</t>
   </si>
   <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
     <t>Bueno</t>
   </si>
   <si>
@@ -71,6 +68,18 @@
   </si>
   <si>
     <t>Perritas.com</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Muy malo</t>
+  </si>
+  <si>
+    <t>¿Que tan Bueno fue la calidad y el precio del espectáculo?</t>
+  </si>
+  <si>
+    <t>Muy Bueno</t>
   </si>
 </sst>
 </file>
@@ -335,16 +344,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="21.5703125" customWidth="1"/>
+    <col min="1" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -376,7 +391,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -384,31 +399,31 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>123456</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -416,31 +431,31 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>123456</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -448,13 +463,13 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>123456</v>
@@ -463,16 +478,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -480,13 +495,13 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
         <v>123456</v>
@@ -498,13 +513,13 @@
         <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -512,13 +527,13 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>123456</v>
@@ -530,13 +545,13 @@
         <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -544,13 +559,13 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3">
         <v>123456</v>
@@ -562,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -576,13 +591,13 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>123456</v>
@@ -594,13 +609,13 @@
         <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -608,13 +623,13 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3">
         <v>123456</v>
@@ -626,13 +641,13 @@
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -640,13 +655,13 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3">
         <v>123456</v>
@@ -658,13 +673,13 @@
         <v>12</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -672,13 +687,13 @@
         <v>43779.033877465277</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3">
         <v>123456</v>
@@ -690,16 +705,1265 @@
         <v>12</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>43779.033877465277</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{05CA07A0-C3FF-4758-8CA7-869952841E5E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>